--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value294.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value294.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.591330263325696</v>
+        <v>0.9613366723060608</v>
       </c>
       <c r="B1">
-        <v>1.770665527730306</v>
+        <v>1.585789322853088</v>
       </c>
       <c r="C1">
-        <v>1.798350958689635</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.329428178416727</v>
+        <v>2.619231700897217</v>
       </c>
       <c r="E1">
-        <v>1.273558883956126</v>
+        <v>1.354471564292908</v>
       </c>
     </row>
   </sheetData>
